--- a/public/assets/files/Data Mahasiswa 2021.xlsx
+++ b/public/assets/files/Data Mahasiswa 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF78FCD-EE54-4EE9-AEB6-390A2B855F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFCA51F-044C-4949-A32E-88A50C881E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="645">
   <si>
     <t>kelas</t>
   </si>
@@ -1950,6 +1950,12 @@
   </si>
   <si>
     <t>Putri Indah Lestari</t>
+  </si>
+  <si>
+    <t>periode_ta</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2016,7 +2022,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2337,7 +2342,7 @@
   <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2351,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
@@ -2365,7 +2370,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -2373,6 +2378,9 @@
       </c>
       <c r="G1" t="s">
         <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2388,7 +2396,7 @@
       <c r="D2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>480</v>
       </c>
       <c r="F2">
@@ -2397,7 +2405,9 @@
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2412,7 +2422,7 @@
       <c r="D3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>481</v>
       </c>
       <c r="F3">
@@ -2421,7 +2431,9 @@
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2436,7 +2448,7 @@
       <c r="D4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>482</v>
       </c>
       <c r="F4">
@@ -2445,7 +2457,9 @@
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2460,7 +2474,7 @@
       <c r="D5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>483</v>
       </c>
       <c r="F5">
@@ -2469,7 +2483,9 @@
       <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2484,7 +2500,7 @@
       <c r="D6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>484</v>
       </c>
       <c r="F6">
@@ -2493,7 +2509,9 @@
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2508,7 +2526,7 @@
       <c r="D7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>485</v>
       </c>
       <c r="F7">
@@ -2517,7 +2535,9 @@
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2532,7 +2552,7 @@
       <c r="D8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>486</v>
       </c>
       <c r="F8">
@@ -2541,7 +2561,9 @@
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2556,7 +2578,7 @@
       <c r="D9" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>487</v>
       </c>
       <c r="F9">
@@ -2565,7 +2587,9 @@
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2580,7 +2604,7 @@
       <c r="D10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>488</v>
       </c>
       <c r="F10">
@@ -2589,7 +2613,9 @@
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2604,7 +2630,7 @@
       <c r="D11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>489</v>
       </c>
       <c r="F11">
@@ -2613,7 +2639,9 @@
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2628,7 +2656,7 @@
       <c r="D12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>490</v>
       </c>
       <c r="F12">
@@ -2637,7 +2665,9 @@
       <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2652,7 +2682,7 @@
       <c r="D13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>491</v>
       </c>
       <c r="F13">
@@ -2661,7 +2691,9 @@
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2676,7 +2708,7 @@
       <c r="D14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>492</v>
       </c>
       <c r="F14">
@@ -2685,7 +2717,9 @@
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2700,7 +2734,7 @@
       <c r="D15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>493</v>
       </c>
       <c r="F15">
@@ -2709,7 +2743,9 @@
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2724,7 +2760,7 @@
       <c r="D16" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>494</v>
       </c>
       <c r="F16">
@@ -2733,7 +2769,9 @@
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2748,7 +2786,7 @@
       <c r="D17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>495</v>
       </c>
       <c r="F17">
@@ -2757,7 +2795,9 @@
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2772,7 +2812,7 @@
       <c r="D18" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>496</v>
       </c>
       <c r="F18">
@@ -2781,7 +2821,9 @@
       <c r="G18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2796,7 +2838,7 @@
       <c r="D19" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>497</v>
       </c>
       <c r="F19">
@@ -2805,7 +2847,9 @@
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2820,7 +2864,7 @@
       <c r="D20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>498</v>
       </c>
       <c r="F20">
@@ -2829,7 +2873,9 @@
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2844,7 +2890,7 @@
       <c r="D21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>499</v>
       </c>
       <c r="F21">
@@ -2853,7 +2899,9 @@
       <c r="G21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2868,7 +2916,7 @@
       <c r="D22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>500</v>
       </c>
       <c r="F22">
@@ -2877,7 +2925,9 @@
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2892,7 +2942,7 @@
       <c r="D23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F23">
@@ -2901,7 +2951,9 @@
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2916,7 +2968,7 @@
       <c r="D24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>502</v>
       </c>
       <c r="F24">
@@ -2925,7 +2977,9 @@
       <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2940,7 +2994,7 @@
       <c r="D25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>503</v>
       </c>
       <c r="F25">
@@ -2949,7 +3003,9 @@
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2964,7 +3020,7 @@
       <c r="D26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>504</v>
       </c>
       <c r="F26">
@@ -2973,7 +3029,9 @@
       <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2988,7 +3046,7 @@
       <c r="D27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>505</v>
       </c>
       <c r="F27">
@@ -2997,7 +3055,9 @@
       <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -3012,7 +3072,7 @@
       <c r="D28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>506</v>
       </c>
       <c r="F28">
@@ -3021,7 +3081,9 @@
       <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -3036,7 +3098,7 @@
       <c r="D29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>507</v>
       </c>
       <c r="F29">
@@ -3045,7 +3107,9 @@
       <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -3060,7 +3124,7 @@
       <c r="D30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>508</v>
       </c>
       <c r="F30">
@@ -3069,7 +3133,9 @@
       <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -3084,7 +3150,7 @@
       <c r="D31" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>509</v>
       </c>
       <c r="F31">
@@ -3093,7 +3159,9 @@
       <c r="G31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3108,7 +3176,7 @@
       <c r="D32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>510</v>
       </c>
       <c r="F32">
@@ -3117,7 +3185,9 @@
       <c r="G32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -3132,7 +3202,7 @@
       <c r="D33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>511</v>
       </c>
       <c r="F33">
@@ -3141,7 +3211,9 @@
       <c r="G33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3156,7 +3228,7 @@
       <c r="D34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>512</v>
       </c>
       <c r="F34">
@@ -3165,7 +3237,9 @@
       <c r="G34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -3180,7 +3254,7 @@
       <c r="D35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>513</v>
       </c>
       <c r="F35">
@@ -3189,7 +3263,9 @@
       <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3204,7 +3280,7 @@
       <c r="D36" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>514</v>
       </c>
       <c r="F36">
@@ -3213,7 +3289,9 @@
       <c r="G36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -3228,7 +3306,7 @@
       <c r="D37" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>515</v>
       </c>
       <c r="F37">
@@ -3237,7 +3315,9 @@
       <c r="G37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -3252,7 +3332,7 @@
       <c r="D38" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>516</v>
       </c>
       <c r="F38">
@@ -3261,7 +3341,9 @@
       <c r="G38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3276,7 +3358,7 @@
       <c r="D39" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>517</v>
       </c>
       <c r="F39">
@@ -3285,7 +3367,9 @@
       <c r="G39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3300,7 +3384,7 @@
       <c r="D40" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>518</v>
       </c>
       <c r="F40">
@@ -3309,7 +3393,9 @@
       <c r="G40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3324,7 +3410,7 @@
       <c r="D41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>519</v>
       </c>
       <c r="F41">
@@ -3333,7 +3419,9 @@
       <c r="G41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -3348,7 +3436,7 @@
       <c r="D42" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>520</v>
       </c>
       <c r="F42">
@@ -3357,7 +3445,9 @@
       <c r="G42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -3372,7 +3462,7 @@
       <c r="D43" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>521</v>
       </c>
       <c r="F43">
@@ -3381,7 +3471,9 @@
       <c r="G43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -3396,7 +3488,7 @@
       <c r="D44" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>522</v>
       </c>
       <c r="F44">
@@ -3405,7 +3497,9 @@
       <c r="G44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -3420,7 +3514,7 @@
       <c r="D45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>523</v>
       </c>
       <c r="F45">
@@ -3429,7 +3523,9 @@
       <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -3444,7 +3540,7 @@
       <c r="D46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>524</v>
       </c>
       <c r="F46">
@@ -3453,7 +3549,9 @@
       <c r="G46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -3468,7 +3566,7 @@
       <c r="D47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>525</v>
       </c>
       <c r="F47">
@@ -3477,7 +3575,9 @@
       <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -3492,7 +3592,7 @@
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>526</v>
       </c>
       <c r="F48">
@@ -3501,7 +3601,9 @@
       <c r="G48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -3516,7 +3618,7 @@
       <c r="D49" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>527</v>
       </c>
       <c r="F49">
@@ -3525,7 +3627,9 @@
       <c r="G49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3540,7 +3644,7 @@
       <c r="D50" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>528</v>
       </c>
       <c r="F50">
@@ -3549,7 +3653,9 @@
       <c r="G50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3564,7 +3670,7 @@
       <c r="D51" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>529</v>
       </c>
       <c r="F51">
@@ -3573,7 +3679,9 @@
       <c r="G51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3588,7 +3696,7 @@
       <c r="D52" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>530</v>
       </c>
       <c r="F52">
@@ -3597,7 +3705,9 @@
       <c r="G52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3612,7 +3722,7 @@
       <c r="D53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>531</v>
       </c>
       <c r="F53">
@@ -3621,7 +3731,9 @@
       <c r="G53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3636,7 +3748,7 @@
       <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>532</v>
       </c>
       <c r="F54">
@@ -3645,7 +3757,9 @@
       <c r="G54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -3660,7 +3774,7 @@
       <c r="D55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>533</v>
       </c>
       <c r="F55">
@@ -3669,7 +3783,9 @@
       <c r="G55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3684,7 +3800,7 @@
       <c r="D56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>534</v>
       </c>
       <c r="F56">
@@ -3693,7 +3809,9 @@
       <c r="G56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3708,7 +3826,7 @@
       <c r="D57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>535</v>
       </c>
       <c r="F57">
@@ -3717,7 +3835,9 @@
       <c r="G57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -3732,7 +3852,7 @@
       <c r="D58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>536</v>
       </c>
       <c r="F58">
@@ -3741,7 +3861,9 @@
       <c r="G58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3756,7 +3878,7 @@
       <c r="D59" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>537</v>
       </c>
       <c r="F59">
@@ -3765,7 +3887,9 @@
       <c r="G59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3780,7 +3904,7 @@
       <c r="D60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>538</v>
       </c>
       <c r="F60">
@@ -3789,7 +3913,9 @@
       <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3804,7 +3930,7 @@
       <c r="D61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>539</v>
       </c>
       <c r="F61">
@@ -3813,7 +3939,9 @@
       <c r="G61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3828,7 +3956,7 @@
       <c r="D62" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>540</v>
       </c>
       <c r="F62">
@@ -3837,7 +3965,9 @@
       <c r="G62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3852,7 +3982,7 @@
       <c r="D63" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>541</v>
       </c>
       <c r="F63">
@@ -3861,7 +3991,9 @@
       <c r="G63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -3876,7 +4008,7 @@
       <c r="D64" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>542</v>
       </c>
       <c r="F64">
@@ -3885,7 +4017,9 @@
       <c r="G64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -3900,7 +4034,7 @@
       <c r="D65" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>543</v>
       </c>
       <c r="F65">
@@ -3909,7 +4043,9 @@
       <c r="G65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -3924,7 +4060,7 @@
       <c r="D66" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>544</v>
       </c>
       <c r="F66">
@@ -3933,7 +4069,9 @@
       <c r="G66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3948,7 +4086,7 @@
       <c r="D67" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>545</v>
       </c>
       <c r="F67">
@@ -3957,7 +4095,9 @@
       <c r="G67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3972,7 +4112,7 @@
       <c r="D68" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>546</v>
       </c>
       <c r="F68">
@@ -3981,7 +4121,9 @@
       <c r="G68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -3996,7 +4138,7 @@
       <c r="D69" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>547</v>
       </c>
       <c r="F69">
@@ -4005,7 +4147,9 @@
       <c r="G69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -4020,7 +4164,7 @@
       <c r="D70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>548</v>
       </c>
       <c r="F70">
@@ -4029,7 +4173,9 @@
       <c r="G70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -4044,7 +4190,7 @@
       <c r="D71" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>549</v>
       </c>
       <c r="F71">
@@ -4053,7 +4199,9 @@
       <c r="G71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -4068,7 +4216,7 @@
       <c r="D72" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>550</v>
       </c>
       <c r="F72">
@@ -4077,7 +4225,9 @@
       <c r="G72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -4092,7 +4242,7 @@
       <c r="D73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>551</v>
       </c>
       <c r="F73">
@@ -4101,7 +4251,9 @@
       <c r="G73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4116,7 +4268,7 @@
       <c r="D74" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>552</v>
       </c>
       <c r="F74">
@@ -4125,7 +4277,9 @@
       <c r="G74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="3"/>
+      <c r="H74" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -4140,7 +4294,7 @@
       <c r="D75" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>553</v>
       </c>
       <c r="F75">
@@ -4149,7 +4303,9 @@
       <c r="G75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="3"/>
+      <c r="H75" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -4164,7 +4320,7 @@
       <c r="D76" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>554</v>
       </c>
       <c r="F76">
@@ -4173,7 +4329,9 @@
       <c r="G76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -4188,7 +4346,7 @@
       <c r="D77" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>555</v>
       </c>
       <c r="F77">
@@ -4197,7 +4355,9 @@
       <c r="G77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -4212,7 +4372,7 @@
       <c r="D78" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>556</v>
       </c>
       <c r="F78">
@@ -4221,7 +4381,9 @@
       <c r="G78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -4236,7 +4398,7 @@
       <c r="D79" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>557</v>
       </c>
       <c r="F79">
@@ -4245,7 +4407,9 @@
       <c r="G79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -4260,7 +4424,7 @@
       <c r="D80" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>558</v>
       </c>
       <c r="F80">
@@ -4269,7 +4433,9 @@
       <c r="G80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -4284,7 +4450,7 @@
       <c r="D81" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>559</v>
       </c>
       <c r="F81">
@@ -4293,7 +4459,9 @@
       <c r="G81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -4308,7 +4476,7 @@
       <c r="D82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>560</v>
       </c>
       <c r="F82">
@@ -4317,7 +4485,9 @@
       <c r="G82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -4332,7 +4502,7 @@
       <c r="D83" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>561</v>
       </c>
       <c r="F83">
@@ -4341,7 +4511,9 @@
       <c r="G83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -4356,7 +4528,7 @@
       <c r="D84" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>562</v>
       </c>
       <c r="F84">
@@ -4365,7 +4537,9 @@
       <c r="G84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -4380,7 +4554,7 @@
       <c r="D85" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F85">
@@ -4389,7 +4563,9 @@
       <c r="G85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -4404,7 +4580,7 @@
       <c r="D86" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F86">
@@ -4413,7 +4589,9 @@
       <c r="G86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4428,7 +4606,7 @@
       <c r="D87" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>565</v>
       </c>
       <c r="F87">
@@ -4437,7 +4615,9 @@
       <c r="G87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -4452,7 +4632,7 @@
       <c r="D88" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>566</v>
       </c>
       <c r="F88">
@@ -4461,7 +4641,9 @@
       <c r="G88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -4476,7 +4658,7 @@
       <c r="D89" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>567</v>
       </c>
       <c r="F89">
@@ -4485,7 +4667,9 @@
       <c r="G89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -4500,7 +4684,7 @@
       <c r="D90" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>568</v>
       </c>
       <c r="F90">
@@ -4509,7 +4693,9 @@
       <c r="G90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H90" s="3"/>
+      <c r="H90" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -4524,7 +4710,7 @@
       <c r="D91" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>569</v>
       </c>
       <c r="F91">
@@ -4533,7 +4719,9 @@
       <c r="G91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -4548,7 +4736,7 @@
       <c r="D92" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>570</v>
       </c>
       <c r="F92">
@@ -4557,7 +4745,9 @@
       <c r="G92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4572,7 +4762,7 @@
       <c r="D93" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>571</v>
       </c>
       <c r="F93">
@@ -4581,7 +4771,9 @@
       <c r="G93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -4596,7 +4788,7 @@
       <c r="D94" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>572</v>
       </c>
       <c r="F94">
@@ -4605,7 +4797,9 @@
       <c r="G94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -4620,7 +4814,7 @@
       <c r="D95" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>573</v>
       </c>
       <c r="F95">
@@ -4629,7 +4823,9 @@
       <c r="G95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -4644,7 +4840,7 @@
       <c r="D96" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="7" t="s">
         <v>574</v>
       </c>
       <c r="F96">
@@ -4653,7 +4849,9 @@
       <c r="G96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -4668,7 +4866,7 @@
       <c r="D97" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>575</v>
       </c>
       <c r="F97">
@@ -4677,7 +4875,9 @@
       <c r="G97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4692,7 +4892,7 @@
       <c r="D98" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>576</v>
       </c>
       <c r="F98">
@@ -4701,7 +4901,9 @@
       <c r="G98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="3"/>
+      <c r="H98" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4716,7 +4918,7 @@
       <c r="D99" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>577</v>
       </c>
       <c r="F99">
@@ -4725,7 +4927,9 @@
       <c r="G99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -4740,7 +4944,7 @@
       <c r="D100" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>578</v>
       </c>
       <c r="F100">
@@ -4749,7 +4953,9 @@
       <c r="G100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="3"/>
+      <c r="H100" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -4764,7 +4970,7 @@
       <c r="D101" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>579</v>
       </c>
       <c r="F101">
@@ -4773,7 +4979,9 @@
       <c r="G101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H101" s="3"/>
+      <c r="H101" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -4788,7 +4996,7 @@
       <c r="D102" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>580</v>
       </c>
       <c r="F102">
@@ -4797,7 +5005,9 @@
       <c r="G102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="H102" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -4812,7 +5022,7 @@
       <c r="D103" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>581</v>
       </c>
       <c r="F103">
@@ -4821,7 +5031,9 @@
       <c r="G103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -4836,7 +5048,7 @@
       <c r="D104" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>582</v>
       </c>
       <c r="F104">
@@ -4845,7 +5057,9 @@
       <c r="G104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H104" s="3"/>
+      <c r="H104" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -4860,7 +5074,7 @@
       <c r="D105" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="7" t="s">
         <v>583</v>
       </c>
       <c r="F105">
@@ -4869,7 +5083,9 @@
       <c r="G105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H105" s="3"/>
+      <c r="H105" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -4884,7 +5100,7 @@
       <c r="D106" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>584</v>
       </c>
       <c r="F106">
@@ -4893,7 +5109,9 @@
       <c r="G106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H106" s="3"/>
+      <c r="H106" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -4908,7 +5126,7 @@
       <c r="D107" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>585</v>
       </c>
       <c r="F107">
@@ -4917,7 +5135,9 @@
       <c r="G107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H107" s="3"/>
+      <c r="H107" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4932,7 +5152,7 @@
       <c r="D108" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="7" t="s">
         <v>586</v>
       </c>
       <c r="F108">
@@ -4941,7 +5161,9 @@
       <c r="G108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4956,7 +5178,7 @@
       <c r="D109" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>587</v>
       </c>
       <c r="F109">
@@ -4965,7 +5187,9 @@
       <c r="G109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4980,7 +5204,7 @@
       <c r="D110" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>588</v>
       </c>
       <c r="F110">
@@ -4989,7 +5213,9 @@
       <c r="G110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H110" s="3"/>
+      <c r="H110" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -5004,7 +5230,7 @@
       <c r="D111" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="7" t="s">
         <v>589</v>
       </c>
       <c r="F111">
@@ -5013,7 +5239,9 @@
       <c r="G111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="3"/>
+      <c r="H111" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -5028,7 +5256,7 @@
       <c r="D112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="7" t="s">
         <v>590</v>
       </c>
       <c r="F112">
@@ -5037,7 +5265,9 @@
       <c r="G112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H112" s="3"/>
+      <c r="H112" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -5052,7 +5282,7 @@
       <c r="D113" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>591</v>
       </c>
       <c r="F113">
@@ -5061,7 +5291,9 @@
       <c r="G113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H113" s="3"/>
+      <c r="H113" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -5076,7 +5308,7 @@
       <c r="D114" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>592</v>
       </c>
       <c r="F114">
@@ -5085,7 +5317,9 @@
       <c r="G114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="3"/>
+      <c r="H114" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -5100,7 +5334,7 @@
       <c r="D115" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="7" t="s">
         <v>593</v>
       </c>
       <c r="F115">
@@ -5109,7 +5343,9 @@
       <c r="G115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="3"/>
+      <c r="H115" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -5124,7 +5360,7 @@
       <c r="D116" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>594</v>
       </c>
       <c r="F116">
@@ -5133,7 +5369,9 @@
       <c r="G116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -5148,7 +5386,7 @@
       <c r="D117" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="7" t="s">
         <v>595</v>
       </c>
       <c r="F117">
@@ -5157,7 +5395,9 @@
       <c r="G117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H117" s="3"/>
+      <c r="H117" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -5172,7 +5412,7 @@
       <c r="D118" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>596</v>
       </c>
       <c r="F118">
@@ -5181,7 +5421,9 @@
       <c r="G118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -5196,7 +5438,7 @@
       <c r="D119" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="7" t="s">
         <v>597</v>
       </c>
       <c r="F119">
@@ -5205,7 +5447,9 @@
       <c r="G119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="3"/>
+      <c r="H119" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -5220,7 +5464,7 @@
       <c r="D120" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="7" t="s">
         <v>598</v>
       </c>
       <c r="F120">
@@ -5229,7 +5473,9 @@
       <c r="G120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H120" s="3"/>
+      <c r="H120" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -5244,7 +5490,7 @@
       <c r="D121" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>599</v>
       </c>
       <c r="F121">
@@ -5253,7 +5499,9 @@
       <c r="G121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H121" s="3"/>
+      <c r="H121" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -5268,7 +5516,7 @@
       <c r="D122" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>600</v>
       </c>
       <c r="F122">
@@ -5277,7 +5525,9 @@
       <c r="G122" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H122" s="3"/>
+      <c r="H122" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -5292,7 +5542,7 @@
       <c r="D123" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="7" t="s">
         <v>601</v>
       </c>
       <c r="F123">
@@ -5301,7 +5551,9 @@
       <c r="G123" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H123" s="3"/>
+      <c r="H123" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -5316,7 +5568,7 @@
       <c r="D124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>602</v>
       </c>
       <c r="F124">
@@ -5325,7 +5577,9 @@
       <c r="G124" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H124" s="3"/>
+      <c r="H124" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -5340,7 +5594,7 @@
       <c r="D125" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="7" t="s">
         <v>603</v>
       </c>
       <c r="F125">
@@ -5349,7 +5603,9 @@
       <c r="G125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H125" s="3"/>
+      <c r="H125" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -5364,7 +5620,7 @@
       <c r="D126" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="7" t="s">
         <v>604</v>
       </c>
       <c r="F126">
@@ -5373,7 +5629,9 @@
       <c r="G126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H126" s="3"/>
+      <c r="H126" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -5388,7 +5646,7 @@
       <c r="D127" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="7" t="s">
         <v>605</v>
       </c>
       <c r="F127">
@@ -5397,7 +5655,9 @@
       <c r="G127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="3"/>
+      <c r="H127" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -5412,7 +5672,7 @@
       <c r="D128" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="7" t="s">
         <v>606</v>
       </c>
       <c r="F128">
@@ -5421,7 +5681,9 @@
       <c r="G128" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H128" s="3"/>
+      <c r="H128" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -5436,7 +5698,7 @@
       <c r="D129" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="7" t="s">
         <v>607</v>
       </c>
       <c r="F129">
@@ -5445,7 +5707,9 @@
       <c r="G129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="3"/>
+      <c r="H129" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -5460,7 +5724,7 @@
       <c r="D130" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="7" t="s">
         <v>608</v>
       </c>
       <c r="F130">
@@ -5469,7 +5733,9 @@
       <c r="G130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H130" s="3"/>
+      <c r="H130" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -5484,7 +5750,7 @@
       <c r="D131" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="7" t="s">
         <v>609</v>
       </c>
       <c r="F131">
@@ -5493,7 +5759,9 @@
       <c r="G131" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="3"/>
+      <c r="H131" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -5508,7 +5776,7 @@
       <c r="D132" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="7" t="s">
         <v>610</v>
       </c>
       <c r="F132">
@@ -5517,7 +5785,9 @@
       <c r="G132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="3"/>
+      <c r="H132" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -5532,7 +5802,7 @@
       <c r="D133" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="7" t="s">
         <v>611</v>
       </c>
       <c r="F133">
@@ -5541,7 +5811,9 @@
       <c r="G133" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="3"/>
+      <c r="H133" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -5556,7 +5828,7 @@
       <c r="D134" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="7" t="s">
         <v>612</v>
       </c>
       <c r="F134">
@@ -5565,7 +5837,9 @@
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="3"/>
+      <c r="H134" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -5580,7 +5854,7 @@
       <c r="D135" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="7" t="s">
         <v>613</v>
       </c>
       <c r="F135">
@@ -5589,7 +5863,9 @@
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="3"/>
+      <c r="H135" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -5604,7 +5880,7 @@
       <c r="D136" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="7" t="s">
         <v>614</v>
       </c>
       <c r="F136">
@@ -5613,7 +5889,9 @@
       <c r="G136" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H136" s="3"/>
+      <c r="H136" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -5628,7 +5906,7 @@
       <c r="D137" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="7" t="s">
         <v>615</v>
       </c>
       <c r="F137">
@@ -5637,7 +5915,9 @@
       <c r="G137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="3"/>
+      <c r="H137" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -5652,7 +5932,7 @@
       <c r="D138" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="7" t="s">
         <v>616</v>
       </c>
       <c r="F138">
@@ -5661,7 +5941,9 @@
       <c r="G138" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H138" s="3"/>
+      <c r="H138" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -5676,7 +5958,7 @@
       <c r="D139" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="7" t="s">
         <v>617</v>
       </c>
       <c r="F139">
@@ -5685,7 +5967,9 @@
       <c r="G139" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H139" s="3"/>
+      <c r="H139" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -5700,7 +5984,7 @@
       <c r="D140" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="7" t="s">
         <v>618</v>
       </c>
       <c r="F140">
@@ -5709,7 +5993,9 @@
       <c r="G140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H140" s="3"/>
+      <c r="H140" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -5724,7 +6010,7 @@
       <c r="D141" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="7" t="s">
         <v>619</v>
       </c>
       <c r="F141">
@@ -5733,7 +6019,9 @@
       <c r="G141" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H141" s="3"/>
+      <c r="H141" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -5748,7 +6036,7 @@
       <c r="D142" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="7" t="s">
         <v>620</v>
       </c>
       <c r="F142">
@@ -5757,7 +6045,9 @@
       <c r="G142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H142" s="3"/>
+      <c r="H142" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -5772,7 +6062,7 @@
       <c r="D143" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="7" t="s">
         <v>621</v>
       </c>
       <c r="F143">
@@ -5781,7 +6071,9 @@
       <c r="G143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H143" s="3"/>
+      <c r="H143" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -5796,7 +6088,7 @@
       <c r="D144" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="7" t="s">
         <v>622</v>
       </c>
       <c r="F144">
@@ -5805,7 +6097,9 @@
       <c r="G144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H144" s="3"/>
+      <c r="H144" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -5820,7 +6114,7 @@
       <c r="D145" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="7" t="s">
         <v>623</v>
       </c>
       <c r="F145">
@@ -5829,7 +6123,9 @@
       <c r="G145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H145" s="3"/>
+      <c r="H145" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -5844,7 +6140,7 @@
       <c r="D146" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="7" t="s">
         <v>624</v>
       </c>
       <c r="F146">
@@ -5853,7 +6149,9 @@
       <c r="G146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="3"/>
+      <c r="H146" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -5868,7 +6166,7 @@
       <c r="D147" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="7" t="s">
         <v>625</v>
       </c>
       <c r="F147">
@@ -5877,7 +6175,9 @@
       <c r="G147" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H147" s="3"/>
+      <c r="H147" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -5892,7 +6192,7 @@
       <c r="D148" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="7" t="s">
         <v>626</v>
       </c>
       <c r="F148">
@@ -5901,7 +6201,9 @@
       <c r="G148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H148" s="3"/>
+      <c r="H148" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -5916,7 +6218,7 @@
       <c r="D149" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="7" t="s">
         <v>627</v>
       </c>
       <c r="F149">
@@ -5925,7 +6227,9 @@
       <c r="G149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H149" s="3"/>
+      <c r="H149" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -5940,7 +6244,7 @@
       <c r="D150" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="7" t="s">
         <v>628</v>
       </c>
       <c r="F150">
@@ -5949,7 +6253,9 @@
       <c r="G150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H150" s="3"/>
+      <c r="H150" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -5964,7 +6270,7 @@
       <c r="D151" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="7" t="s">
         <v>629</v>
       </c>
       <c r="F151">
@@ -5973,7 +6279,9 @@
       <c r="G151" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H151" s="3"/>
+      <c r="H151" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -5988,7 +6296,7 @@
       <c r="D152" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="7" t="s">
         <v>630</v>
       </c>
       <c r="F152">
@@ -5997,7 +6305,9 @@
       <c r="G152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H152" s="3"/>
+      <c r="H152" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -6012,7 +6322,7 @@
       <c r="D153" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="7" t="s">
         <v>631</v>
       </c>
       <c r="F153">
@@ -6021,7 +6331,9 @@
       <c r="G153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="3"/>
+      <c r="H153" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -6036,7 +6348,7 @@
       <c r="D154" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="7" t="s">
         <v>632</v>
       </c>
       <c r="F154">
@@ -6045,7 +6357,9 @@
       <c r="G154" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H154" s="3"/>
+      <c r="H154" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -6060,7 +6374,7 @@
       <c r="D155" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="7" t="s">
         <v>633</v>
       </c>
       <c r="F155">
@@ -6069,7 +6383,9 @@
       <c r="G155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H155" s="3"/>
+      <c r="H155" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -6084,7 +6400,7 @@
       <c r="D156" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="7" t="s">
         <v>634</v>
       </c>
       <c r="F156">
@@ -6093,7 +6409,9 @@
       <c r="G156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H156" s="3"/>
+      <c r="H156" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -6108,7 +6426,7 @@
       <c r="D157" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="7" t="s">
         <v>635</v>
       </c>
       <c r="F157">
@@ -6117,107 +6435,115 @@
       <c r="G157" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H157" s="3"/>
+      <c r="H157" s="5" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
